--- a/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/A17_CD_Sheet.xlsx
+++ b/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/A17_CD_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Dynamic Mode Glider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Fly_off_2_glider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C364A39-1DAE-4E2F-9744-C5425809BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8CF9BA-10AD-4A25-BF25-A99B27F4109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,22 +303,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32840000000000003</c:v>
+                  <c:v>0.37869999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53180000000000005</c:v>
+                  <c:v>0.57779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73129999999999995</c:v>
+                  <c:v>0.77380000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93389999999999995</c:v>
+                  <c:v>0.97550000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1397999999999999</c:v>
+                  <c:v>1.1808000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3491</c:v>
+                  <c:v>1.3898999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,22 +330,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.423E-2</c:v>
+                  <c:v>1.3430000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.653E-2</c:v>
+                  <c:v>1.7129999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.103E-2</c:v>
+                  <c:v>2.2929999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7830000000000001E-2</c:v>
+                  <c:v>3.1129999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.703E-2</c:v>
+                  <c:v>4.1829999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8829999999999998E-2</c:v>
+                  <c:v>5.5030000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,14 +1347,14 @@
         <v>-5</v>
       </c>
       <c r="C2">
-        <v>0.32840000000000003</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="D2">
-        <v>1.14E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E7" si="0">D2+$G$2</f>
-        <v>1.423E-2</v>
+        <v>1.3430000000000001E-2</v>
       </c>
       <c r="G2">
         <v>2.8300000000000001E-3</v>
@@ -1365,14 +1365,14 @@
         <v>-3</v>
       </c>
       <c r="C3">
-        <v>0.53180000000000005</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="D3">
-        <v>1.37E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1.653E-2</v>
+        <v>1.7129999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1380,14 +1380,14 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>0.73129999999999995</v>
+        <v>0.77380000000000004</v>
       </c>
       <c r="D4">
-        <v>1.8200000000000001E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.103E-2</v>
+        <v>2.2929999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1395,14 +1395,14 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.93389999999999995</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="D5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.7830000000000001E-2</v>
+        <v>3.1129999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1410,14 +1410,14 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1.1397999999999999</v>
+        <v>1.1808000000000001</v>
       </c>
       <c r="D6">
-        <v>3.4200000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.703E-2</v>
+        <v>4.1829999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1425,14 +1425,14 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.3491</v>
+        <v>1.3898999999999999</v>
       </c>
       <c r="D7">
-        <v>4.5999999999999999E-2</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.8829999999999998E-2</v>
+        <v>5.5030000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
